--- a/biology/Médecine/Sélectine_P/Sélectine_P.xlsx
+++ b/biology/Médecine/Sélectine_P/Sélectine_P.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S%C3%A9lectine_P</t>
+          <t>Sélectine_P</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La sélectine P est une protéine de type sélectine. Son gène est SELP porté sur le chromosome 1 humain.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S%C3%A9lectine_P</t>
+          <t>Sélectine_P</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Rôle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est exprimée par les plaquettes sanguines et les cellules endothéliales.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S%C3%A9lectine_P</t>
+          <t>Sélectine_P</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lors de la drépanocytose, les hématies se fixent sur la sélectine P des cellules endothéliales, constituant ainsi une cible thérapeutique potentielle[5]. Elle favoriserait également la formation d'agrégats entre plaquettes et polynucléaires neutrophiles.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lors de la drépanocytose, les hématies se fixent sur la sélectine P des cellules endothéliales, constituant ainsi une cible thérapeutique potentielle. Elle favoriserait également la formation d'agrégats entre plaquettes et polynucléaires neutrophiles.
 </t>
         </is>
       </c>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>S%C3%A9lectine_P</t>
+          <t>Sélectine_P</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,9 +589,11 @@
           <t>Cible thérapeutique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'inclacumab et le crizanlizumab sont des anticorps monoclonaux dirigé contre la sélectine P[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'inclacumab et le crizanlizumab sont des anticorps monoclonaux dirigé contre la sélectine P.
 </t>
         </is>
       </c>
